--- a/excelize/test_info.xlsx
+++ b/excelize/test_info.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B151A45-EB8C-458B-B499-1BDE01912C85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0CF6B8-FF23-4CE6-82C3-BBFEAF3101DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17670" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,68 +21,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{F3A4A743-A3E5-49ED-89C7-AE809D0AB89B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-保底位</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{E2A5B92B-9980-4AA9-907B-D212159274BB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-保底位</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
@@ -133,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -278,28 +216,6 @@
   </si>
   <si>
     <t>7_90001_1</t>
-  </si>
-  <si>
-    <t>7_90002_1</t>
-  </si>
-  <si>
-    <t>7_90003_1</t>
-  </si>
-  <si>
-    <t>保底掉落取代第4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7_90004_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7_90005_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>box_reward_guaranteed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -450,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,126 +389,11 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1064,536 +865,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" style="1" customWidth="1"/>
-    <col min="2" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="43" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="81" operator="equal">
       <formula>"Excluded"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="82" operator="equal">
       <formula>"Server"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="83" operator="equal">
       <formula>"Client"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="84" operator="equal">
       <formula>"Both"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"Excluded"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>"Server"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>"Client"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
-      <formula>"Both"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="35" priority="17" operator="equal">
-      <formula>"Excluded"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="18" operator="equal">
-      <formula>"Server"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="19" operator="equal">
-      <formula>"Client"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
-      <formula>"Both"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
-      <formula>"Excluded"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
-      <formula>"Server"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
-      <formula>"Client"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
-      <formula>"Both"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="27" priority="9" operator="equal">
-      <formula>"Excluded"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
-      <formula>"Server"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
-      <formula>"Client"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
-      <formula>"Both"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
-      <formula>"Excluded"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
-      <formula>"Server"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
-      <formula>"Client"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Both"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:F4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Both,Server,Client,Excluded"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
